--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure10.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure10.xlsx
@@ -34,46 +34,46 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>diabetesmed</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
     <t>race</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>diag_1</t>
   </si>
   <si>
     <t>max_glu_serum</t>
   </si>
   <si>
+    <t>diabetesmed</t>
+  </si>
+  <si>
     <t>change</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
+    <t>number_inpatient</t>
   </si>
   <si>
     <t>number_emergency</t>
-  </si>
-  <si>
-    <t>number_inpatient</t>
   </si>
   <si>
     <t>number_outpatient</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -94,10 +94,10 @@
     <t>num_procedures</t>
   </si>
   <si>
-    <t>max</t>
+    <t>avg</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>max</t>
   </si>
   <si>
     <t>sum</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.336306209562122</v>
+        <v>1.299984977279897</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1.304263817455753</v>
+        <v>1.283767672846727</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1.298216250689086</v>
+        <v>1.239339388338438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1.248102199604356</v>
+        <v>1.232570796843236</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.240347345892084</v>
+        <v>1.181620249951032</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1.19645890158943</v>
+        <v>1.17004476271707</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>1.171961593186233</v>
+        <v>1.167794260417891</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.170670658090849</v>
+        <v>1.164635570802973</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1.167293143453633</v>
+        <v>1.164462860624255</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164866749840445</v>
+        <v>1.161768732591875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1.164601884326996</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>1.161727858764251</v>
+        <v>1.160031394583013</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>1.154700538379251</v>
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1.154700538379251</v>
@@ -730,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1.154700538379251</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.149240930780457</v>
+        <v>1.152073229995701</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1.145881092548817</v>
@@ -784,10 +784,10 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.133848704113176</v>
+        <v>1.131792414132821</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.108536652010185</v>
+        <v>1.090279158130707</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9837597676909967</v>
+        <v>0.9837369914911829</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9781864429977463</v>
+        <v>0.9790015970969973</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9775020747769368</v>
+        <v>0.9766212917842511</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24">
-        <v>0.9748989472936852</v>
+        <v>0.974381200162788</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25">
-        <v>0.9722857542962061</v>
+        <v>0.9743249020283149</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9671299972639243</v>
+        <v>0.9668666235791907</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9670601483012408</v>
+        <v>0.9667609181495704</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9663653355249189</v>
+        <v>0.9659167040520487</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9661394821058783</v>
+        <v>0.9657586099457014</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9660691056669228</v>
+        <v>0.9654941727355584</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9650543448407746</v>
+        <v>0.9645323664459144</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9634702056560649</v>
+        <v>0.9615959899947024</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9347243541960332</v>
+        <v>0.9349273630526566</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1036,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.837866458345363</v>
+        <v>0.932003953120033</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1053,13 +1053,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35">
-        <v>0.8128966544855418</v>
+        <v>0.932003953120033</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7568395943983027</v>
+        <v>0.8728087802368042</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7032108464077431</v>
+        <v>0.8400268812903088</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6869217363437204</v>
+        <v>0.8348756005812122</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1121,13 +1121,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6869217363437204</v>
+        <v>0.6371930928643098</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.6858157048035982</v>
+        <v>0.6158132452760821</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1155,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.6854655452308527</v>
+        <v>0.614451804788759</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.6781634466537978</v>
+        <v>0.5788729538626026</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6525030928856985</v>
+        <v>0.5638694156883471</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6016568375961868</v>
+        <v>0.5414419110199851</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5631132131181588</v>
+        <v>0.5374838498865699</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5491164053928625</v>
+        <v>0.483045891539648</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5421607129422282</v>
+        <v>0.4789777689036451</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5240062597878445</v>
+        <v>0.4734828893546502</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.5219763312997733</v>
+        <v>0.4712128797624197</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>0.5138679456744226</v>
+        <v>0.4646586360045504</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1325,13 +1325,13 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5009082659620331</v>
+        <v>0.4615545270643915</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1342,13 +1342,13 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.500668598471178</v>
+        <v>0.4507489358552089</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1359,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.485071250072666</v>
+        <v>0.446108908109597</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -1382,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="E54">
-        <v>0.485071250072666</v>
+        <v>0.4405658296753655</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>0.4771187236136979</v>
+        <v>0.4399963618022308</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="E56">
-        <v>0.4751297581226968</v>
+        <v>0.4230308586136256</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>0.4626882347527176</v>
+        <v>0.4178351052255927</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
@@ -1450,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4471367744746553</v>
+        <v>0.4018722299855526</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E59">
-        <v>0.4441514060137825</v>
+        <v>0.3985292839492641</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4230037575863587</v>
+        <v>0.3918080059334081</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4163331998932265</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>0.4107564154517241</v>
+        <v>0.3910276075608865</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.4010425803103901</v>
+        <v>0.3843880033453688</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1546,13 +1546,13 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.393387974346771</v>
+        <v>0.3829239190267478</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3864692130231979</v>
+        <v>0.377837118697204</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3753785967647742</v>
+        <v>0.3716527980664948</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3753785967647741</v>
+        <v>0.3665544780289969</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3728823433151219</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -1637,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3720868362768521</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.365615603604619</v>
+        <v>0.3596651905438096</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3604680932014871</v>
+        <v>0.3564587533370988</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3524099135148823</v>
+        <v>0.3551894631474636</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3516292444927643</v>
+        <v>0.3544335348244794</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3478961713381538</v>
+        <v>0.3509659949815822</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3426328568397781</v>
+        <v>0.3419562053038533</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3333370647114245</v>
+        <v>0.3386636669337154</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3256117159640225</v>
+        <v>0.334336149664807</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3234689454784425</v>
+        <v>0.3327416761918485</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3217565167477249</v>
+        <v>0.3307558867740509</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3156809662536099</v>
+        <v>0.3305350260715796</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1838,10 +1838,10 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3091031730694202</v>
+        <v>0.3229960921942897</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3053022970700335</v>
+        <v>0.3156180438239102</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,7 +1866,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
@@ -1875,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="E83">
-        <v>0.3005690235043951</v>
+        <v>0.3156180438239102</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1886,13 +1886,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="E84">
-        <v>0.2975612815329207</v>
+        <v>0.3156180438239102</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1903,13 +1903,13 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.2936262694861412</v>
+        <v>0.3153866791948344</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2898913162809865</v>
+        <v>0.3110372159440142</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
-        <v>0.2895407996165775</v>
+        <v>0.310640934487864</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2884747128693851</v>
+        <v>0.3074291561059501</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1971,13 +1971,13 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2881112181835112</v>
+        <v>0.3063386777221541</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2840827012860554</v>
+        <v>0.3052302148038023</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2820117707697194</v>
+        <v>0.3008194172815112</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="E92">
-        <v>0.2813283785639681</v>
+        <v>0.2975089187220544</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2790237165275845</v>
+        <v>0.2954263581281378</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
@@ -2062,7 +2062,7 @@
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2770701706385739</v>
+        <v>0.28510712446708</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2751194289355382</v>
+        <v>0.2792834478991788</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2090,13 +2090,13 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2743577607556489</v>
+        <v>0.2760487281097058</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,7 +2104,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
@@ -2113,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2737361945767549</v>
+        <v>0.2756129689249299</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E98">
-        <v>0.2734119572378934</v>
+        <v>0.2699359298032395</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2716080034676058</v>
+        <v>0.2656466236669192</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E100">
-        <v>0.2706581126688954</v>
+        <v>0.2643442515182034</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2644101631279588</v>
+        <v>0.261332696607932</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2643513571451413</v>
+        <v>0.2573166758324205</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2608517143888355</v>
+        <v>0.256342426721927</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2601904463957918</v>
+        <v>0.2560305364714906</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2565316665470912</v>
+        <v>0.2542288064181489</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.255874841023026</v>
+        <v>0.2531289942094171</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2554002573752923</v>
+        <v>0.2523912699420239</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2551348666719502</v>
+        <v>0.2497995553829404</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E109">
-        <v>0.2549036741021027</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -2334,7 +2334,7 @@
         <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2537720649404025</v>
+        <v>0.2452457250527101</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2345,13 +2345,13 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>0.2535330690092222</v>
+        <v>0.2450805737831289</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2534745715601767</v>
+        <v>0.2445064368185757</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2532506144396206</v>
+        <v>0.2440672707505993</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2520813392882034</v>
+        <v>0.243813253857253</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2464425958097414</v>
+        <v>0.2380979787440759</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2453680328139171</v>
+        <v>0.2363854732236615</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2436295620668562</v>
+        <v>0.2363673566677488</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2467,10 +2467,10 @@
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2429340440840445</v>
+        <v>0.2357843430769393</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2417368133076228</v>
+        <v>0.2355305139519937</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2398523620718312</v>
+        <v>0.2340119668595959</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.2380979787440759</v>
+        <v>0.2324051485600364</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0.2379500957415313</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E123">
-        <v>0.237451164672516</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E124">
-        <v>0.2322343481338644</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2320478710777553</v>
+        <v>0.2311035125956597</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
         <v>26</v>
       </c>
       <c r="E126">
-        <v>0.2316881156807048</v>
+        <v>0.230655262083749</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E127">
-        <v>0.2311021924986075</v>
+        <v>0.2291908696154519</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
       </c>
       <c r="E128">
-        <v>0.231000854489286</v>
+        <v>0.2289527349448126</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2301282614272925</v>
+        <v>0.2288617928395549</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,7 +2665,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
@@ -2674,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2286530975353278</v>
+        <v>0.2287900895818604</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E131">
-        <v>0.2280061482331679</v>
+        <v>0.2284095967638001</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
         <v>25</v>
@@ -2708,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2274096943995545</v>
+        <v>0.2279609469214948</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2268511573970372</v>
+        <v>0.2262376097980367</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2264088942374521</v>
+        <v>0.2246069939478134</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
       </c>
       <c r="E135">
-        <v>0.2255329608888529</v>
+        <v>0.2242818816255019</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2254023387627185</v>
+        <v>0.2239369948638909</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,7 +2784,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2246105267091345</v>
+        <v>0.2239306388421034</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E138">
-        <v>0.2236067977499791</v>
+        <v>0.2238457548080296</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2236067977499791</v>
+        <v>0.2237707348889857</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2235463811355433</v>
+        <v>0.2235216204212415</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2234813312742046</v>
+        <v>0.2232869342933601</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2226492121353663</v>
+        <v>0.2228713308855864</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.221464161750241</v>
+        <v>0.2226304458882446</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2210233652025108</v>
+        <v>0.2218502313867407</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2209570264506674</v>
+        <v>0.2210822561281048</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
         <v>29</v>
       </c>
       <c r="E146">
-        <v>0.2200887493814918</v>
+        <v>0.2205495998128311</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2200632268604031</v>
+        <v>0.2179403466370541</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E148">
-        <v>0.2197756376982604</v>
+        <v>0.2175046195594722</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.2195003525991986</v>
+        <v>0.2150143152882953</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,7 +3005,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
         <v>24</v>
@@ -3014,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2159021184220414</v>
+        <v>0.2143509162379693</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>0.2147890878198289</v>
+        <v>0.2133119766321672</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.2143486409245311</v>
+        <v>0.2131018763002732</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2107113399737298</v>
+        <v>0.2126849938420862</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2100768645343738</v>
+        <v>0.2122549026340212</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.2099148515955885</v>
+        <v>0.2107832144827174</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E156">
-        <v>0.2090320861994914</v>
+        <v>0.2091146387044918</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.208623164155571</v>
+        <v>0.2090860762760269</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
         <v>26</v>
       </c>
       <c r="E158">
-        <v>0.2085634889745699</v>
+        <v>0.2085307005503172</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2085634889745699</v>
+        <v>0.206357818061153</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2085634889745699</v>
+        <v>0.2060528010749084</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,7 +3192,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
         <v>19</v>
@@ -3201,7 +3201,7 @@
         <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2080507760758414</v>
+        <v>0.2046687511241326</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E162">
-        <v>0.2079186963363482</v>
+        <v>0.2040720501528012</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2075941440600472</v>
+        <v>0.2039439933752311</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.2073695692646773</v>
+        <v>0.2039204274343547</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2068338917791361</v>
+        <v>0.2035085504477457</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
         <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.2058863935816291</v>
+        <v>0.2025691946155523</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.2036620368290786</v>
+        <v>0.2022756770487436</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
         <v>26</v>
       </c>
       <c r="E168">
-        <v>0.2022599587389725</v>
+        <v>0.2018665425552919</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.2018433569398328</v>
+        <v>0.2018270773597631</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.201738768419861</v>
+        <v>0.2008459401554358</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3365,13 +3365,13 @@
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.2015307954825498</v>
+        <v>0.2008427231353954</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3382,13 +3382,13 @@
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.2013125040315849</v>
+        <v>0.2002793827633754</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E173">
-        <v>0.2011229083918978</v>
+        <v>0.1993112258977601</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3419,10 +3419,10 @@
         <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.2009977199194877</v>
+        <v>0.1972475928491957</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.2002659739025644</v>
+        <v>0.1965557180781017</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3450,13 +3450,13 @@
         <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
         <v>26</v>
       </c>
       <c r="E176">
-        <v>0.2</v>
+        <v>0.1958136209192031</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1996099908038673</v>
+        <v>0.1956388441010913</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1989250657364105</v>
+        <v>0.1941638412930749</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1985212123829979</v>
+        <v>0.1913080637985777</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
         <v>26</v>
       </c>
       <c r="E180">
-        <v>0.1984063491047585</v>
+        <v>0.1897569310748828</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E181">
-        <v>0.1975736854446321</v>
+        <v>0.1891471727870444</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
         <v>27</v>
       </c>
       <c r="E182">
-        <v>0.1974330164647965</v>
+        <v>0.1883191854235969</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
         <v>27</v>
       </c>
       <c r="E183">
-        <v>0.1968308538707858</v>
+        <v>0.1852699187449544</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1962045633639759</v>
+        <v>0.1847781263546965</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1954551800219656</v>
+        <v>0.1842642657979374</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3620,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1950995498105848</v>
+        <v>0.1839301316379399</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1938663663943558</v>
+        <v>0.1835213492409715</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1937310416995963</v>
+        <v>0.1793801996264779</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1931006731428156</v>
+        <v>0.1791936157652573</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.191966046545642</v>
+        <v>0.1786194387799913</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1870707060282095</v>
+        <v>0.1785686273845626</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E192">
-        <v>0.1870448683658196</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>0.186576007186426</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
       </c>
       <c r="E194">
-        <v>0.1861110497670797</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1854338926567277</v>
+        <v>0.1778216301015437</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.1814000631366563</v>
+        <v>0.1776183818446263</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.1796053020267748</v>
+        <v>0.1771468958784009</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
       </c>
       <c r="E198">
-        <v>0.1789803970587135</v>
+        <v>0.1754807873900419</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1785025574465977</v>
+        <v>0.1753861333316674</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.178142203490595</v>
+        <v>0.1746398721918185</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1774358514131947</v>
+        <v>0.1741288577651109</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
         <v>25</v>
@@ -3898,7 +3898,7 @@
         <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1770548002045154</v>
+        <v>0.1732021331629984</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E203">
-        <v>0.1765382173577136</v>
+        <v>0.1693398392183772</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E204">
-        <v>0.1761869097093289</v>
+        <v>0.1675982212885935</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1749032531053812</v>
+        <v>0.167497262124266</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1745321318664945</v>
+        <v>0.1626421699594303</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1728410739338506</v>
+        <v>0.1612242057650743</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3994,13 +3994,13 @@
         <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1720551083113477</v>
+        <v>0.1601884998233612</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.1707699808168373</v>
+        <v>0.1591667084910064</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1671202581241262</v>
+        <v>0.1568774935816476</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
       </c>
       <c r="E211">
-        <v>0.1670417653713238</v>
+        <v>0.1554756729076975</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
         <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1657309737474787</v>
+        <v>0.1551249029545957</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1651073587236078</v>
+        <v>0.1548572546852428</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1648267605389397</v>
+        <v>0.153636167332213</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
       </c>
       <c r="E215">
-        <v>0.1631515168700393</v>
+        <v>0.1521765913957621</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E216">
-        <v>0.1610628865573565</v>
+        <v>0.1509752237884109</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
         <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1605936935923757</v>
+        <v>0.1503139800753477</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1578236770475302</v>
+        <v>0.148966308161403</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4181,13 +4181,13 @@
         <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1573702023756174</v>
+        <v>0.1487523834661611</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1571966040097653</v>
+        <v>0.1487473384678148</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1570341612257536</v>
+        <v>0.147772038417761</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1554756729076975</v>
+        <v>0.1476887603095866</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1543033499620918</v>
+        <v>0.1475012635694296</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E224">
-        <v>0.153145212322893</v>
+        <v>0.1469461914487289</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1529197102408414</v>
+        <v>0.1465997093361885</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1524099856197376</v>
+        <v>0.1464502500149975</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E227">
-        <v>0.1523878635518919</v>
+        <v>0.1449987057404379</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1521765913957621</v>
+        <v>0.144904356787504</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1507267127085109</v>
+        <v>0.144614271840776</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1503311969936929</v>
+        <v>0.1438967684286003</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,7 +4382,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
@@ -4391,7 +4391,7 @@
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1496985156801081</v>
+        <v>0.1435729505716577</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1492806283623029</v>
+        <v>0.1430710021918219</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E233">
-        <v>0.1491377419832739</v>
+        <v>0.1429884324656215</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.147902190780044</v>
+        <v>0.1429602331576721</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E235">
-        <v>0.1473810726967706</v>
+        <v>0.1428224477399687</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1471580646822176</v>
+        <v>0.1424698114071762</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>0.1470462625023221</v>
+        <v>0.142306926138422</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.1467086723257817</v>
+        <v>0.1415129121179097</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1461193836506817</v>
+        <v>0.1412447812819743</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1460500978001061</v>
+        <v>0.140000664365576</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4555,13 +4555,13 @@
         <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1456221865164138</v>
+        <v>0.1398904102608009</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E242">
-        <v>0.1453607685759722</v>
+        <v>0.1389395487525021</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1451128933973294</v>
+        <v>0.138924291138133</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.144979905148957</v>
+        <v>0.1388870282441124</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1444917288931507</v>
+        <v>0.1383357317793731</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1435782570679148</v>
+        <v>0.1382751742805496</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1428338869528963</v>
+        <v>0.1382282068001601</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1422566895733771</v>
+        <v>0.1381678878560418</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1412076054788129</v>
+        <v>0.1374009095094719</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250" t="s">
         <v>28</v>
       </c>
       <c r="E250">
-        <v>0.14042287531739</v>
+        <v>0.1368335692875647</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1402516091049729</v>
+        <v>0.1366707149215812</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
         <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1400289608165476</v>
+        <v>0.1366609139823695</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1399626873905253</v>
+        <v>0.1361861003246339</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,7 +4773,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
         <v>23</v>
@@ -4782,7 +4782,7 @@
         <v>29</v>
       </c>
       <c r="E254">
-        <v>0.138856473373258</v>
+        <v>0.1358698565981916</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.138791841869932</v>
+        <v>0.1357540354899004</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,7 +4807,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
@@ -4816,7 +4816,7 @@
         <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1385334150305547</v>
+        <v>0.1353736426883564</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1384711570992029</v>
+        <v>0.1348674819279791</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.1381310118671959</v>
+        <v>0.1342953321231669</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E259">
-        <v>0.1374853795722651</v>
+        <v>0.1335323627860628</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.137456307648516</v>
+        <v>0.1333453407820987</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.137343482782997</v>
+        <v>0.1330604844851191</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1370331459376321</v>
+        <v>0.1329085634965077</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E263">
-        <v>0.1370132647370711</v>
+        <v>0.1312334645668636</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
         <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1367034088497258</v>
+        <v>0.1308344135493907</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1364724165264254</v>
+        <v>0.1302962967464569</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,7 +4977,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
@@ -4986,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1351425129639093</v>
+        <v>0.1302173495668866</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1349387134681283</v>
+        <v>0.1299066279563533</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
         <v>21</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1347836376227938</v>
+        <v>0.1287454163719393</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5031,13 +5031,13 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D269" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E269">
-        <v>0.1333645785685789</v>
+        <v>0.1283220623157685</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E270">
-        <v>0.1332958284026847</v>
+        <v>0.1281890901869677</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E271">
-        <v>0.1305429514454247</v>
+        <v>0.1280591172835974</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D272" t="s">
         <v>27</v>
       </c>
       <c r="E272">
-        <v>0.1278795058590917</v>
+        <v>0.1259463705516215</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1278722470243547</v>
+        <v>0.1252954909365383</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.1266024973353973</v>
+        <v>0.1250561088780087</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1262483693265274</v>
+        <v>0.1246045717977944</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
         <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1262258925835992</v>
+        <v>0.1239096774028149</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E277">
-        <v>0.1261845502014058</v>
+        <v>0.1238989548647421</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
         <v>23</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1259315868314719</v>
+        <v>0.1235294249276517</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5201,13 +5201,13 @@
         <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E279">
-        <v>0.1255878197658229</v>
+        <v>0.1233188272722317</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
         <v>23</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1246228614212772</v>
+        <v>0.1229756108975444</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1241130001760949</v>
+        <v>0.1219202574884701</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E282">
-        <v>0.1229562720476581</v>
+        <v>0.1213553411287277</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C283" t="s">
         <v>24</v>
       </c>
       <c r="D283" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1227691531654198</v>
+        <v>0.1209756088104857</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D284" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1227327338000518</v>
+        <v>0.1204047114838414</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1226684675986051</v>
+        <v>0.1202348551269253</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D286" t="s">
         <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1212085997034731</v>
+        <v>0.1200996162431736</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C287" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E287">
-        <v>0.1207437513392114</v>
+        <v>0.1195741588856244</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5354,13 +5354,13 @@
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E288">
-        <v>0.1205997095316807</v>
+        <v>0.1187892182257277</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E289">
-        <v>0.1199703732300415</v>
+        <v>0.1187391796079436</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1199641452391709</v>
+        <v>0.1184851171513049</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1199067452875695</v>
+        <v>0.1182635122562398</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1198266383574565</v>
+        <v>0.1177756164754404</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C293" t="s">
         <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1193961242534623</v>
+        <v>0.1159350992942959</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1189849124075888</v>
+        <v>0.1158517236505873</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D295" t="s">
         <v>28</v>
       </c>
       <c r="E295">
-        <v>0.1189146402860658</v>
+        <v>0.11546605525203</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1184332248791164</v>
+        <v>0.115373033304896</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5507,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1183236612003278</v>
+        <v>0.1153330594467296</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1179907296187342</v>
+        <v>0.1146674769415488</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D299" t="s">
         <v>28</v>
       </c>
       <c r="E299">
-        <v>0.1169844929529734</v>
+        <v>0.1142792115564149</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D300" t="s">
         <v>27</v>
       </c>
       <c r="E300">
-        <v>0.1167010600697218</v>
+        <v>0.1135605170333236</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>0.1165227389408202</v>
+        <v>0.1131720139325401</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C302" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D302" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.1157807248576959</v>
+        <v>0.1130869687160786</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1157259429127165</v>
+        <v>0.1124559766477862</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1156494285899591</v>
+        <v>0.1124113751095919</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1155524308763246</v>
+        <v>0.1120850528316284</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D306" t="s">
         <v>27</v>
       </c>
       <c r="E306">
-        <v>0.1146803769544852</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5677,13 +5677,13 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D307" t="s">
         <v>27</v>
       </c>
       <c r="E307">
-        <v>0.1142293157661601</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
         <v>27</v>
       </c>
       <c r="E308">
-        <v>0.1135695407528386</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1134188222391469</v>
+        <v>0.110248677387535</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
         <v>27</v>
       </c>
       <c r="E310">
-        <v>0.1132086935779762</v>
+        <v>0.1102194973491893</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1126356065470817</v>
+        <v>0.1100941303457866</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1118904979485007</v>
+        <v>0.109804378450833</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E313">
-        <v>0.1117475390669186</v>
+        <v>0.1073558214830775</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D314" t="s">
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1117475390669186</v>
+        <v>0.1068457434414295</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1117475390669186</v>
+        <v>0.1066421740162095</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1115008180796557</v>
+        <v>0.1065948777341771</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
         <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E317">
-        <v>0.1102194973491893</v>
+        <v>0.1064308416169463</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E318">
-        <v>0.1089121252233552</v>
+        <v>0.1062833416606234</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1087577169780918</v>
+        <v>0.1050469311035318</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
       </c>
       <c r="E320">
-        <v>0.1081261887759293</v>
+        <v>0.1046765470645967</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1081063783629581</v>
+        <v>0.1042903985769768</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E322">
-        <v>0.1080596383697896</v>
+        <v>0.1040679024476222</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
         <v>23</v>
       </c>
       <c r="D323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1076735519407669</v>
+        <v>0.1035412283309713</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.1072500536250404</v>
+        <v>0.1035319337111596</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5983,13 +5983,13 @@
         <v>13</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
       </c>
       <c r="E325">
-        <v>0.1066461055041163</v>
+        <v>0.1033205420559705</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E326">
-        <v>0.1065786284772102</v>
+        <v>0.1026691381139577</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D327" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E327">
-        <v>0.1059867387903294</v>
+        <v>0.1020719336299641</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,13 +6034,13 @@
         <v>13</v>
       </c>
       <c r="C328" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D328" t="s">
         <v>29</v>
       </c>
       <c r="E328">
-        <v>0.1043117507997892</v>
+        <v>0.1013959448125362</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.103956897066569</v>
+        <v>0.1011651705461228</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.1037601084518447</v>
+        <v>0.1002917658847879</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
         <v>23</v>
       </c>
       <c r="D331" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.1034397056197146</v>
+        <v>0.09883429517628334</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D332" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E332">
-        <v>0.1029730515366984</v>
+        <v>0.09686124289035819</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.1015299433381761</v>
+        <v>0.09619749459609513</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.1014694193768116</v>
+        <v>0.09541271259819729</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09921803335576555</v>
+        <v>0.09507903851264078</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D336" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09902613024113763</v>
+        <v>0.09348100998318706</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.09883655736038512</v>
+        <v>0.09280513664517816</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09860273080411673</v>
+        <v>0.0923544101772473</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D339" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.09782872782641266</v>
+        <v>0.09228433400888805</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6241,10 +6241,10 @@
         <v>22</v>
       </c>
       <c r="D340" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09690665684412836</v>
+        <v>0.0898456225213962</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
         <v>28</v>
       </c>
       <c r="E341">
-        <v>0.09649211025363927</v>
+        <v>0.08639696520963655</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.09301957809758385</v>
+        <v>0.08535922991645553</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E343">
-        <v>0.09282204186586154</v>
+        <v>0.08463943468830926</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D344" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.09256642411708843</v>
+        <v>0.08352992350701213</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D345" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E345">
-        <v>0.08881337746643275</v>
+        <v>0.0814449879488677</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6340,13 +6340,13 @@
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.08854316691542077</v>
+        <v>0.08143847047304957</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.08793038497977528</v>
+        <v>0.08070620371135087</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.08789585865167156</v>
+        <v>0.08060163567882137</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D349" t="s">
         <v>28</v>
       </c>
       <c r="E349">
-        <v>0.08591200309670079</v>
+        <v>0.07930363886703302</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.08587973222577053</v>
+        <v>0.07832462976715462</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.0844381190502085</v>
+        <v>0.07824184052337434</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
         <v>28</v>
       </c>
       <c r="E352">
-        <v>0.08360139092578664</v>
+        <v>0.07755942821331518</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D353" t="s">
         <v>29</v>
       </c>
       <c r="E353">
-        <v>0.08325566799306272</v>
+        <v>0.07597787564133514</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E354">
-        <v>0.08256043897714412</v>
+        <v>0.07544528559471426</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C355" t="s">
         <v>19</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E355">
-        <v>0.08042227829172577</v>
+        <v>0.07537783614444069</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
         <v>29</v>
       </c>
       <c r="E356">
-        <v>0.07727197401746905</v>
+        <v>0.07451367253094322</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D357" t="s">
         <v>29</v>
       </c>
       <c r="E357">
-        <v>0.0772141806186291</v>
+        <v>0.07324364635528688</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6544,13 +6544,13 @@
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.0769771720884227</v>
+        <v>0.07270863678494169</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D359" t="s">
         <v>28</v>
       </c>
       <c r="E359">
-        <v>0.07616399273792002</v>
+        <v>0.07219314348551116</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
         <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07460061274164723</v>
+        <v>0.0721018868269</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.07414819852689621</v>
+        <v>0.07142252857479883</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6612,13 +6612,13 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.07255985360058759</v>
+        <v>0.06963384937875185</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D363" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.07215117123325945</v>
+        <v>0.06941697726003243</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C364" t="s">
         <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.0710518531471029</v>
+        <v>0.0693006936253833</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D365" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E365">
-        <v>0.07053488572119911</v>
+        <v>0.06917070566849326</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06976390757709622</v>
+        <v>0.06676950940486567</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C367" t="s">
         <v>24</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06891425140227135</v>
+        <v>0.06543779566910261</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6714,13 +6714,13 @@
         <v>11</v>
       </c>
       <c r="C368" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06806118465648721</v>
+        <v>0.06302513202764483</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06803982505757973</v>
+        <v>0.06169064655892412</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E370">
-        <v>0.06768270841819653</v>
+        <v>0.06149151295688132</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C371" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D371" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E371">
-        <v>0.06752603730634825</v>
+        <v>0.05957329243505015</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D372" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E372">
-        <v>0.06740504953358339</v>
+        <v>0.05832827424457553</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.06605100778143015</v>
+        <v>0.05775598013928114</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D374" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E374">
-        <v>0.065665723871022</v>
+        <v>0.05514326221381553</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D375" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.06463933628921563</v>
+        <v>0.05192176146898362</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E376">
-        <v>0.06369655019281999</v>
+        <v>0.04983687647269811</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C377" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D377" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.06092814675611414</v>
+        <v>0.04982992745189745</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E378">
-        <v>0.05824373570202077</v>
+        <v>0.04791895988266572</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D379" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E379">
-        <v>0.05808048282042329</v>
+        <v>0.04121359434340708</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C380" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E380">
-        <v>0.05312570288567425</v>
+        <v>0.03962725589918716</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>0.05261657395885374</v>
+        <v>0.02654102993426661</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6952,13 +6952,13 @@
         <v>6</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D382" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E382">
-        <v>0.05257208045019013</v>
+        <v>0.01589594757530226</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.03915224401723891</v>
+        <v>0.01375605581041053</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
       </c>
       <c r="E384">
-        <v>0.03421958200233433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
       </c>
       <c r="E385">
-        <v>0.02670734061093879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C386" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
       </c>
       <c r="E386">
-        <v>0.01329505881504847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,13 +7034,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D387" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D388" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D389" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -7085,13 +7085,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D390" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -7119,13 +7119,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C392" t="s">
         <v>21</v>
       </c>
       <c r="D392" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -7136,13 +7136,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
         <v>21</v>
       </c>
       <c r="D393" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
       </c>
       <c r="D394" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D395" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -7187,13 +7187,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
       </c>
       <c r="D397" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C398" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D399" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -7255,13 +7255,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D400" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -7272,13 +7272,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C402" t="s">
         <v>21</v>
       </c>
       <c r="D402" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D405" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C407" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -7391,13 +7391,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C408" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7425,13 +7425,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D410" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D411" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C412" t="s">
         <v>25</v>
       </c>
       <c r="D412" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D413" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C416" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E417">
         <v>0</v>
